--- a/eBoard/eBoard.xlsx
+++ b/eBoard/eBoard.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16980" windowHeight="10350" tabRatio="820"/>
+    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="820"/>
   </bookViews>
   <sheets>
     <sheet name="Stm32" sheetId="1" r:id="rId1"/>
@@ -12,361 +12,245 @@
     <sheet name="指令集" sheetId="18" r:id="rId3"/>
     <sheet name="存储分配" sheetId="20" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>待办事项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主控MCU采用UCOS操作系统，最好能兼容FMReader卡机；从机也采用UCOS操作系统。</t>
   </si>
   <si>
     <t>TODO</t>
   </si>
   <si>
     <t>V01版本采用UART接口与上位机通讯，V02版本再增加CCID接口。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上位机需要知道当前工位的使用情况，所以主控MCU需要定时的轮询访问工位MCU，了解工位MCU的状态和各工位的状态。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>eBoard上位机需要支持工位MCU固件的烧写功能，比如弄一个界面，可以打开需要烧写的bin文件，然后包括两步：第一步存放bin文件到主控MCU的Flash；第二步通过主控MCU烧写bin文件到工位MCU。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要增加上位机功能</t>
   </si>
   <si>
     <t>需要定制一种通信的规则，以增加指令的可扩展性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>采用"指令-响应"的指令结构，包括 PC给主控MCU发送指令 和 主控MCU给工位MCU发送指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功耗问题，确认2个LM317是否能支持全部工位工作。</t>
+  </si>
+  <si>
+    <t>以后设计需要考虑余量问题，不能把指数掐的死死的。</t>
+  </si>
+  <si>
+    <t>DMA功能，工位MCU同时操作3个工位的功能。</t>
+  </si>
+  <si>
+    <t>IIC多从机的通讯问题，虽然采用的两组IIC接口，但是应该能够统一寻址。</t>
+  </si>
+  <si>
+    <t>确定eBoard的基本操作场景，以抽象出所需要支持的指令。</t>
+  </si>
+  <si>
+    <t>读写FLASH指令等,需要专门列一个表格</t>
+  </si>
+  <si>
+    <t>关于固件的文档结构和层次一定要建立好，底层驱动、指令层</t>
+  </si>
+  <si>
+    <t>CRC校验函数、FLASH读函数、FLASH写函数、定时器函数、IIC_Master函数、IIC_Slave函数、7816函数、LED闪灯函数、</t>
+  </si>
+  <si>
+    <t>将eBoard功能分为两部分，一部分是需要连接上位机的功能，一部分是直接离线的功能。</t>
+  </si>
+  <si>
+    <t>离线功能是需要配置的，刚开始需要连接上位机对eBoard进行配置，配置成功了才能进行离线模式。如何进行模式切换呢？初步设想配置模式需要一直支持，而离线模式只有通过配置模式配置好了，才能进入离线模式。</t>
+  </si>
+  <si>
+    <t>eBoard的主控MCU型号是STM32F103VB的FLASH容量128Bytes；是工位MCU型号是STM32F103C8T6的FLASH容量是64Bytes。</t>
+  </si>
+  <si>
+    <t>STM32的DMA功能是必须的了，必须调试通，不然后续各项功能都会收到影响。</t>
+  </si>
+  <si>
+    <t>整合之前的Code进入新的带操作系统的程序</t>
+  </si>
+  <si>
+    <t>STM32的硬件MasterIIC存在很多注意点，使用不方便，有很多坑，详情见＜STM32勘误表＞</t>
+  </si>
+  <si>
+    <t>目前还是采用软件模拟IIC功能</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>工位MCU最好能有个状态显示工位当前的状态，比如发送状态、接受状态、空闲状态。</t>
+  </si>
+  <si>
+    <t>目前存在一个问题，由于在Uart发送期间，在StopBit期间，Uart会在内部将IO释放，如果前一个Bit的字节为0的话，由于PCB中没有添加上拉电阻，所以输出的停止位也为0。</t>
+  </si>
+  <si>
+    <t>目前想通过定时器和UART的TXE结合起来操作。</t>
   </si>
   <si>
     <t>规则1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PC机到主控MCU 和 主控MCU到工位MCU都采用“指令-响应”结构</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则2</t>
+  </si>
+  <si>
+    <t>所有的指令发送和接受都采用相同的CRC校验</t>
+  </si>
+  <si>
+    <t>发送指令</t>
+  </si>
+  <si>
+    <t>指令类别</t>
+  </si>
+  <si>
+    <t>指令代码</t>
+  </si>
+  <si>
+    <t>参数1</t>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>长度</t>
+  </si>
+  <si>
+    <t>数据</t>
+  </si>
+  <si>
+    <t>BCC校验</t>
   </si>
   <si>
     <t>CLA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>指令类别</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>指令代码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>长度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CMD</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>P1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>P2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Len</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0x55</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x55代表是PC端到主控MCU的指令</t>
   </si>
   <si>
     <t>0xAA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位的地址</t>
+  </si>
+  <si>
+    <t>0xAA代表是PC端到工位MCU的指令</t>
   </si>
   <si>
     <t>0xFF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x55代表是PC端到主控MCU的指令</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xAA代表是PC端到工位MCU的指令</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0xFF代表是主控MCU到工位MCU的指令</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有的指令发送和接受都采用相同的CRC校验</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送指令</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>响应指令</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>正确与否</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">0xEx </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xEX代表指令执行失败，x代表数据域的长度</t>
   </si>
   <si>
     <t>0x9x</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0x9x代表指令执行成功,x代表数据域的长度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xEX代表指令执行失败，x代表数据域的长度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要增加上位机功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功耗问题，确认2个LM317是否能支持全部工位工作。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以后设计需要考虑余量问题，不能把指数掐的死死的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMA功能，工位MCU同时操作3个工位的功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IIC多从机的通讯问题，虽然采用的两组IIC接口，但是应该能够统一寻址。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定eBoard的基本操作场景，以抽象出所需要支持的指令。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读写FLASH指令等,需要专门列一个表格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主控MCU采用UCOS操作系统，最好能兼容FMReader卡机；从机也采用UCOS操作系统。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于固件的文档结构和层次一定要建立好，底层驱动、指令层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRC校验函数、FLASH读函数、FLASH写函数、定时器函数、IIC_Master函数、IIC_Slave函数、7816函数、LED闪灯函数、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将eBoard功能分为两部分，一部分是需要连接上位机的功能，一部分是直接离线的功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离线功能是需要配置的，刚开始需要连接上位机对eBoard进行配置，配置成功了才能进行离线模式。如何进行模式切换呢？初步设想配置模式需要一直支持，而离线模式只有通过配置模式配置好了，才能进入离线模式。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x55</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0x01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>写16Bytes数据到主控MCU的FLASH</t>
+  </si>
+  <si>
+    <t>0x02</t>
   </si>
   <si>
     <t>从主控MCU的FLASH中读取数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x02</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0x03</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启/关闭离线模式</t>
   </si>
   <si>
     <t>0x04</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启/关闭离线模式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>STM32的DMA功能是必须的了，必须调试通，不然后续各项功能都会收到影响。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整合之前的Code进入新的带操作系统的程序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BCC校验</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BCC校验</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>工位的地址</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>写16Bytes数据到主控MCU的FLASH</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>STM32的硬件MasterIIC存在很多注意点，使用不方便，有很多坑，详情见＜STM32勘误表＞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前还是采用软件模拟IIC功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>eBoard的主控MCU型号是STM32F103VB的FLASH容量128Bytes；是工位MCU型号是STM32F103C8T6的FLASH容量是64Bytes。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位程序</t>
+  </si>
+  <si>
+    <t>需要下载程序</t>
+  </si>
+  <si>
+    <t>必须带长度</t>
   </si>
   <si>
     <t>Slave分配</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>工位程序</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要下载程序</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>必须带长度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>工位MCU最好能有个状态显示工位当前的状态，比如发送状态、接受状态、空闲状态。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前存在一个问题，由于在Uart发送期间，在StopBit期间，Uart会在内部将IO释放，如果前一个Bit的字节为0的话，由于PCB中没有添加上拉电阻，所以输出的停止位也为0。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前想通过定时器和UART的TXE结合起来操作。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -374,11 +258,172 @@
       <strike/>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,12 +432,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -401,120 +632,140 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,33 +774,252 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -567,68 +1037,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="5" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
         <i val="0"/>
         <strike val="0"/>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -650,13 +1170,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1371600" y="6515100"/>
           <a:ext cx="5486400" cy="1495425"/>
@@ -696,13 +1216,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1371600" y="8143875"/>
           <a:ext cx="5505450" cy="1504950"/>
@@ -742,13 +1262,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1371600" y="9772650"/>
           <a:ext cx="5486400" cy="4924425"/>
@@ -788,13 +1308,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1371600" y="14839950"/>
           <a:ext cx="5486400" cy="3562350"/>
@@ -834,13 +1354,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip r:embed="rId5"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1371600" y="18459450"/>
           <a:ext cx="5486400" cy="3352800"/>
@@ -880,13 +1400,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip r:embed="rId6"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1371600" y="21897975"/>
           <a:ext cx="5486400" cy="7162800"/>
@@ -926,13 +1446,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip r:embed="rId7"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1371600" y="29136975"/>
           <a:ext cx="5486400" cy="7286625"/>
@@ -953,16 +1473,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>202</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>242</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -972,15 +1492,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip r:embed="rId8"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="36556950"/>
+          <a:off x="1362075" y="36576000"/>
           <a:ext cx="5486400" cy="7391400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1018,16 +1538,16 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip r:embed="rId9"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1348154" y="45500193"/>
-          <a:ext cx="5509846" cy="7345973"/>
+          <a:off x="1344930" y="44954825"/>
+          <a:ext cx="5486400" cy="7258050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1064,13 +1584,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip r:embed="rId10"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1371600" y="51396900"/>
           <a:ext cx="5486400" cy="4314825"/>
@@ -1091,16 +1611,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>308</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>636270</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>80645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>341</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>636270</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>175895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1110,15 +1630,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip r:embed="rId11"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="55740300"/>
+          <a:off x="1322070" y="56001920"/>
           <a:ext cx="5486400" cy="6067425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1156,13 +1676,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip r:embed="rId12"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1371600" y="61893450"/>
           <a:ext cx="5486400" cy="5191125"/>
@@ -1202,13 +1722,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip r:embed="rId13"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1371600" y="67141725"/>
           <a:ext cx="5486400" cy="4572000"/>
@@ -1248,13 +1768,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip r:embed="rId14"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1447800" y="71789925"/>
           <a:ext cx="5410200" cy="1400175"/>
@@ -1294,13 +1814,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip r:embed="rId15"/>
         <a:srcRect l="12500" t="12012" r="14999" b="17578"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="7915275" y="5572125"/>
           <a:ext cx="8839200" cy="6867525"/>
@@ -1340,13 +1860,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip r:embed="rId16"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1371600" y="73294875"/>
           <a:ext cx="8191500" cy="4543425"/>
@@ -1380,13 +1900,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip r:embed="rId17"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1371600" y="78000225"/>
           <a:ext cx="8724900" cy="3800475"/>
@@ -1427,13 +1947,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip r:embed="rId18"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1371600" y="81981675"/>
           <a:ext cx="7515225" cy="3000375"/>
@@ -1708,482 +2228,481 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C37:C372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A315" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M339" sqref="M339"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="K174" sqref="K174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <sheetData>
     <row r="37" spans="3:3">
-      <c r="C37" s="1"/>
+      <c r="C37" s="17"/>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="1"/>
+      <c r="C45" s="17"/>
     </row>
     <row r="46" spans="3:3">
-      <c r="C46" s="1"/>
+      <c r="C46" s="17"/>
     </row>
     <row r="54" spans="3:3">
-      <c r="C54" s="1"/>
+      <c r="C54" s="17"/>
     </row>
     <row r="55" spans="3:3">
-      <c r="C55" s="1"/>
+      <c r="C55" s="17"/>
     </row>
     <row r="82" spans="3:3">
-      <c r="C82" s="1"/>
+      <c r="C82" s="17"/>
     </row>
     <row r="83" spans="3:3">
-      <c r="C83" s="1"/>
+      <c r="C83" s="17"/>
     </row>
     <row r="102" spans="3:3">
-      <c r="C102" s="1"/>
+      <c r="C102" s="17"/>
     </row>
     <row r="103" spans="3:3">
-      <c r="C103" s="1"/>
+      <c r="C103" s="17"/>
     </row>
     <row r="121" spans="3:3">
-      <c r="C121" s="1"/>
+      <c r="C121" s="17"/>
     </row>
     <row r="122" spans="3:3">
-      <c r="C122" s="1"/>
+      <c r="C122" s="17"/>
     </row>
     <row r="161" spans="3:3">
-      <c r="C161" s="1"/>
+      <c r="C161" s="17"/>
     </row>
     <row r="162" spans="3:3">
-      <c r="C162" s="1"/>
+      <c r="C162" s="17"/>
     </row>
     <row r="202" spans="3:3">
-      <c r="C202" s="1"/>
+      <c r="C202" s="17"/>
     </row>
     <row r="203" spans="3:3">
-      <c r="C203" s="1"/>
+      <c r="C203" s="17"/>
     </row>
     <row r="243" spans="3:3">
-      <c r="C243" s="1"/>
+      <c r="C243" s="17"/>
     </row>
     <row r="244" spans="3:3">
-      <c r="C244" s="1"/>
+      <c r="C244" s="17"/>
     </row>
     <row r="284" spans="3:3">
-      <c r="C284" s="1"/>
+      <c r="C284" s="17"/>
     </row>
     <row r="285" spans="3:3">
-      <c r="C285" s="1"/>
+      <c r="C285" s="17"/>
     </row>
     <row r="308" spans="3:3">
-      <c r="C308" s="1"/>
+      <c r="C308" s="17"/>
     </row>
     <row r="309" spans="3:3">
-      <c r="C309" s="1"/>
+      <c r="C309" s="17"/>
     </row>
     <row r="342" spans="3:3">
-      <c r="C342" s="1"/>
+      <c r="C342" s="17"/>
     </row>
     <row r="343" spans="3:3">
-      <c r="C343" s="1"/>
+      <c r="C343" s="17"/>
     </row>
     <row r="371" spans="3:3">
-      <c r="C371" s="1"/>
+      <c r="C371" s="17"/>
     </row>
     <row r="372" spans="3:3">
-      <c r="C372" s="1"/>
+      <c r="C372" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B3:E39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="47.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="41.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="47.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="28.5">
-      <c r="B4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+    <row r="4" ht="28.5" spans="2:5">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="16">
         <v>43198</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="28.5">
-      <c r="B5" s="4" t="s">
+    <row r="5" ht="28.5" spans="2:5">
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="E5" s="16">
         <v>43198</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="42.75">
-      <c r="B6" s="4" t="s">
+    <row r="6" ht="42.75" spans="2:5">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="16">
         <v>43198</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="57">
-      <c r="B7" s="4" t="s">
+    <row r="7" ht="57" spans="2:5">
+      <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="C7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="16">
         <v>43198</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="28.5">
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
+    <row r="8" ht="28.5" spans="2:5">
+      <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="C8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="16">
         <v>43198</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="28.5">
-      <c r="B9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="5">
+    <row r="9" ht="28.5" spans="2:5">
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="16">
         <v>43198</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="B10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="16">
         <v>43198</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="28.5">
-      <c r="B11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="5">
+    <row r="11" ht="28.5" spans="2:5">
+      <c r="B11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="16">
         <v>43198</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="28.5">
-      <c r="B12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="5">
+    <row r="12" ht="28.5" spans="2:5">
+      <c r="B12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="16">
         <v>43198</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="28.5">
-      <c r="B13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="5">
+    <row r="13" ht="28.5" spans="2:5">
+      <c r="B13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="16">
         <v>43198</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="42.75">
-      <c r="B14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="5">
+    <row r="14" ht="42.75" spans="2:5">
+      <c r="B14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="16">
         <v>43198</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="71.25">
-      <c r="B15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="5">
+    <row r="15" ht="71.25" spans="2:5">
+      <c r="B15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="16">
         <v>43198</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="42.75">
-      <c r="B16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5">
+    <row r="16" ht="42.75" spans="2:5">
+      <c r="B16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="16">
         <v>43199</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="28.5">
-      <c r="B17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="5">
+    <row r="17" ht="28.5" spans="2:5">
+      <c r="B17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="16">
         <v>43199</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="B18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="16">
         <v>43199</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="28.5">
-      <c r="B19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="5">
+    <row r="19" ht="28.5" spans="2:5">
+      <c r="B19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="16">
         <v>43200</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="28.5">
-      <c r="B20" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="5">
+    <row r="20" ht="28.5" spans="2:5">
+      <c r="B20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="16">
         <v>43200</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="57">
-      <c r="B21" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="5">
+    <row r="21" ht="57" spans="2:5">
+      <c r="B21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="16">
         <v>43200</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4:D39">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"TODO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2192,318 +2711,313 @@
       <formula1>"PASS,TODO,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B4:J37"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
-    <col min="6" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="35.625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="10.75" style="1" customWidth="1"/>
+    <col min="6" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="35.625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="2:10" ht="15" customHeight="1">
-      <c r="B5" s="2" t="s">
+    <row r="4" ht="16.5" customHeight="1" spans="2:3">
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="17" t="s">
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="2:10">
+      <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="7" spans="2:10" ht="15" thickBot="1">
-      <c r="C7" s="18" t="s">
+      <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="14" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="7" ht="15" spans="3:10">
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="3:10">
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="3:10">
+      <c r="C9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="3:10">
+      <c r="C10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1" spans="3:10">
+      <c r="C11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1" spans="3:10">
+      <c r="C12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="71.25" spans="3:6">
+      <c r="C17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" ht="71.25" spans="3:6">
+      <c r="C18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" ht="15"/>
+    <row r="23" spans="3:10">
+      <c r="C23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="15" thickBot="1">
-      <c r="C9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="C10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="12.75" customHeight="1">
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="C15" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="C16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" ht="71.25">
-      <c r="C17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" ht="71.25">
-      <c r="C18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" ht="15" thickBot="1"/>
-    <row r="23" spans="3:10">
-      <c r="C23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10">
-      <c r="C24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="3:10">
-      <c r="C25" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10">
-      <c r="C26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
     <row r="27" spans="3:10">
-      <c r="C27" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="C27" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
     </row>
     <row r="28" spans="3:10">
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="36" spans="3:5" ht="28.5">
-      <c r="C36" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5">
-      <c r="C37" s="13" t="s">
-        <v>74</v>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="36" ht="28.5" spans="3:5">
+      <c r="C36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2513,32 +3027,33 @@
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C15:F15"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>